--- a/biology/Médecine/Maladie_X/Maladie_X.xlsx
+++ b/biology/Médecine/Maladie_X/Maladie_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie X est une potentielle pandémie grave dont l'agent infectieux est encore inconnu[1] et à laquelle il convient de se préparer. Le terme maladie X a été officialisé par l'OMS en février 2018 et ajouté à sa liste des maladies prioritaires[2]. Ce risque d'une nouvelle pandémie a notamment été évoqué au Forum de Davos en janvier 2024[3]. 
-Il ne faut pas la confondre avec l'exercice de modélisation de pandémie, dénommé clade X, du Johns Hopkins Center for Health Security (en)[4].
-Selon l'OMS, la maladie X est une maladie hypothétique, actuellement inconnue et de nature à provoquer une épidémie grave pour l'espèce humaine à l'échelle mondiale. L'introduction de cette maladie dans le référentiel sanitaire permet de se préparer à une éventuelle crise sanitaire mondiale afin d’être en mesure de déployer rapidement les mesures adaptées. Elle a été ajoutée par l'OMS en 2018 à la liste des maladies qui pourraient causer un danger international, ce qui permet de mettre en place des recherches ciblées sur ce sujet[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie X est une potentielle pandémie grave dont l'agent infectieux est encore inconnu et à laquelle il convient de se préparer. Le terme maladie X a été officialisé par l'OMS en février 2018 et ajouté à sa liste des maladies prioritaires. Ce risque d'une nouvelle pandémie a notamment été évoqué au Forum de Davos en janvier 2024. 
+Il ne faut pas la confondre avec l'exercice de modélisation de pandémie, dénommé clade X, du Johns Hopkins Center for Health Security (en).
+Selon l'OMS, la maladie X est une maladie hypothétique, actuellement inconnue et de nature à provoquer une épidémie grave pour l'espèce humaine à l'échelle mondiale. L'introduction de cette maladie dans le référentiel sanitaire permet de se préparer à une éventuelle crise sanitaire mondiale afin d’être en mesure de déployer rapidement les mesures adaptées. Elle a été ajoutée par l'OMS en 2018 à la liste des maladies qui pourraient causer un danger international, ce qui permet de mettre en place des recherches ciblées sur ce sujet.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Germes candidats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux candidats sont certaines zoonoses ou les armes bactériologiques[6].
-La maladie à coronavirus 2019, responsable de la pandémie de Covid-19, est présentée comme un cas concret de maladie X[7],[8],[9]. Le virus SARS-CoV-2 serait alors le clade X.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux candidats sont certaines zoonoses ou les armes bactériologiques.
+La maladie à coronavirus 2019, responsable de la pandémie de Covid-19, est présentée comme un cas concret de maladie X. Le virus SARS-CoV-2 serait alors le clade X.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Paranoïa complotiste (2023)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Annoncée pendant le Covid 19 en 2021 par Richard Hatchett (en) sur le site de l'OMS en 2021[10], elle revient sur le devant de la scène à la suite d'une déclaration du dirigeant de l'OMS le 30 mai 2023[11],[12], faisant naître sur les réseaux sociaux le fantasme d'une nouvelle maladie fabriquée dans les laboratoires à l'instar du Covid-19 ou une peur quasi fantasmée d'une vaccination obligatoire pour tous essentiellement dans l'UE, puis éventuellement partout sur le globe à l'échelle planétaire à la suite d'un accord supranational de l'OMS dans l'UE depuis juin 2023, finalisé le 24 février 2022 et être signé au printemps 2024 (voir aussi : International Treaty on Pandemic Prevention, Preparedness and Response (en) pour en savoir plus)[13],[14],[15].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annoncée pendant le Covid 19 en 2021 par Richard Hatchett (en) sur le site de l'OMS en 2021, elle revient sur le devant de la scène à la suite d'une déclaration du dirigeant de l'OMS le 30 mai 2023 faisant naître sur les réseaux sociaux le fantasme d'une nouvelle maladie fabriquée dans les laboratoires à l'instar du Covid-19 ou une peur quasi fantasmée d'une vaccination obligatoire pour tous essentiellement dans l'UE, puis éventuellement partout sur le globe à l'échelle planétaire à la suite d'un accord supranational de l'OMS dans l'UE depuis juin 2023, finalisé le 24 février 2022 et être signé au printemps 2024 (voir aussi : International Treaty on Pandemic Prevention, Preparedness and Response (en) pour en savoir plus).
 </t>
         </is>
       </c>
